--- a/2DGraphicsModeler/Sprint-Backlog (1)-.xlsx
+++ b/2DGraphicsModeler/Sprint-Backlog (1)-.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21916"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wduong1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\Github\2DGraphicsModular\2DGraphicsModeler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="166" documentId="11_EE4692AA6FFB51A77EC1BFD58D45D7537EDE0F54" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{5C86A40D-E99D-4710-B2A2-0C7AC75E02DB}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint1" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="93">
   <si>
     <t>Product Backlog Item</t>
   </si>
@@ -206,16 +205,10 @@
     <t>Task 1 - Create Contact Widget</t>
   </si>
   <si>
-    <t>Cena</t>
-  </si>
-  <si>
     <t>As a user I want to be able write shapes to file in an organized fashion so that I can save data</t>
   </si>
   <si>
     <t>Task 1 - Selection Sort</t>
-  </si>
-  <si>
-    <t>Oliver</t>
   </si>
   <si>
     <t>As a user I want to be able to quit the program through an option in a menu so that I can leave the program</t>
@@ -228,9 +221,6 @@
   </si>
   <si>
     <t>Task 1 - Shape Move Functionality</t>
-  </si>
-  <si>
-    <t>Cena/Alex</t>
   </si>
   <si>
     <t>As an admin I want to be able to move shapes by clicking and dropping so that I can change where shapes render</t>
@@ -298,12 +288,37 @@
   <si>
     <t>Matin/Sina</t>
   </si>
+  <si>
+    <t>As a user, I want to be able to see a report of shapes by perimeter or area (E.C) so that I
+can see a list of shapes and their properties together.</t>
+  </si>
+  <si>
+    <t>Arthur Siu</t>
+  </si>
+  <si>
+    <t>Task 1: Generate Reports by Area, Perim and ID</t>
+  </si>
+  <si>
+    <t>Task 2: Develop Algorithms and functors to sort Shape vector by said parameters</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Sina/Alex</t>
+  </si>
+  <si>
+    <t>Blake Del Rey</t>
+  </si>
+  <si>
+    <t>Create a version of our program with near-to or full functionality.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -330,6 +345,17 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -351,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -394,6 +420,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,6 +471,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -483,7 +521,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>58</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>77</c:v>
@@ -501,31 +539,31 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>-1</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>-2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-16</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-31</c:v>
+                  <c:v>-24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -657,6 +695,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -690,49 +729,41 @@
               </a:ln>
             </c:spPr>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Sprint 2'!$F$1:$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 2'!$E$21:$N$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Day 1(7/15)</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Day2</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Day 3</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Day 4</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Day5</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sprint 2'!$F$20:$J$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>9</c:v>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14</c:v>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1176,11 +1207,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA1016"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1464,7 +1495,9 @@
       <c r="B6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="D6" s="4" t="s">
         <v>22</v>
       </c>
@@ -1964,10 +1997,10 @@
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="1:27" ht="30.75" customHeight="1">
-      <c r="A18" s="11"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1993,16 +2026,16 @@
       <c r="AA18" s="2"/>
     </row>
     <row r="19" spans="1:27" ht="30.75" customHeight="1">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="23" t="s">
         <v>22</v>
       </c>
       <c r="E19" s="5">
@@ -2036,16 +2069,16 @@
       <c r="AA19" s="2"/>
     </row>
     <row r="20" spans="1:27" ht="30.75" customHeight="1">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="23" t="s">
         <v>22</v>
       </c>
       <c r="E20" s="5">
@@ -2081,14 +2114,14 @@
       <c r="AA20" s="2"/>
     </row>
     <row r="21" spans="1:27" s="9" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A21" s="11"/>
-      <c r="B21" s="13" t="s">
+      <c r="A21" s="24"/>
+      <c r="B21" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="23" t="s">
         <v>54</v>
       </c>
       <c r="E21" s="5">
@@ -2122,16 +2155,16 @@
       <c r="AA21" s="2"/>
     </row>
     <row r="22" spans="1:27" ht="30.75" customHeight="1">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>57</v>
+      <c r="C22" s="23" t="s">
+        <v>26</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="23" t="s">
         <v>22</v>
       </c>
       <c r="E22" s="5">
@@ -2165,17 +2198,17 @@
       <c r="AA22" s="2"/>
     </row>
     <row r="23" spans="1:27" ht="30.75" customHeight="1">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>59</v>
+      <c r="C23" s="23" t="s">
+        <v>32</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>22</v>
+      <c r="D23" s="23" t="s">
+        <v>89</v>
       </c>
       <c r="E23" s="5">
         <v>7</v>
@@ -2185,14 +2218,10 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="5">
-        <v>3</v>
-      </c>
+      <c r="K23" s="5"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
-      <c r="N23" s="5">
-        <v>4</v>
-      </c>
+      <c r="N23" s="5"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
@@ -2208,16 +2237,16 @@
       <c r="AA23" s="2"/>
     </row>
     <row r="24" spans="1:27" ht="30.75" customHeight="1">
-      <c r="A24" s="11" t="s">
-        <v>61</v>
+      <c r="A24" s="24" t="s">
+        <v>59</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>62</v>
+      <c r="B24" s="22" t="s">
+        <v>60</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="23" t="s">
         <v>22</v>
       </c>
       <c r="E24" s="5">
@@ -2249,16 +2278,16 @@
       <c r="AA24" s="2"/>
     </row>
     <row r="25" spans="1:27" ht="30.75" customHeight="1">
-      <c r="A25" s="11" t="s">
-        <v>63</v>
+      <c r="A25" s="24" t="s">
+        <v>61</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>64</v>
+      <c r="B25" s="22" t="s">
+        <v>62</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>65</v>
+      <c r="C25" s="23" t="s">
+        <v>90</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="23" t="s">
         <v>22</v>
       </c>
       <c r="E25" s="5">
@@ -2294,16 +2323,16 @@
       <c r="AA25" s="2"/>
     </row>
     <row r="26" spans="1:27" ht="30.75" customHeight="1">
-      <c r="A26" s="11" t="s">
-        <v>66</v>
+      <c r="A26" s="24" t="s">
+        <v>63</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>67</v>
+      <c r="B26" s="22" t="s">
+        <v>64</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="23" t="s">
         <v>22</v>
       </c>
       <c r="E26" s="5">
@@ -2335,16 +2364,16 @@
       <c r="AA26" s="2"/>
     </row>
     <row r="27" spans="1:27" ht="48" customHeight="1">
-      <c r="A27" s="11" t="s">
-        <v>68</v>
+      <c r="A27" s="24" t="s">
+        <v>65</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>69</v>
+      <c r="B27" s="22" t="s">
+        <v>66</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="23" t="s">
         <v>22</v>
       </c>
       <c r="E27" s="5">
@@ -2376,10 +2405,10 @@
       <c r="AA27" s="2"/>
     </row>
     <row r="28" spans="1:27" ht="30.75" customHeight="1">
-      <c r="A28" s="11"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -2405,10 +2434,10 @@
       <c r="AA28" s="2"/>
     </row>
     <row r="29" spans="1:27" ht="30.75" customHeight="1">
-      <c r="A29" s="16"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -2434,10 +2463,10 @@
       <c r="AA29" s="2"/>
     </row>
     <row r="30" spans="1:27" ht="36" customHeight="1">
-      <c r="A30" s="17"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -2580,7 +2609,7 @@
       </c>
       <c r="K34" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L34" s="2">
         <f t="shared" si="1"/>
@@ -2592,7 +2621,7 @@
       </c>
       <c r="N34" s="2">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O34" s="2">
         <f t="shared" si="1"/>
@@ -2625,17 +2654,18 @@
     </row>
     <row r="35" spans="1:27" ht="12.75" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E35" s="4">
-        <v>58</v>
+        <f>E34</f>
+        <v>106</v>
       </c>
       <c r="F35" s="4">
         <f>E34-F34</f>
@@ -2659,39 +2689,39 @@
       </c>
       <c r="K35" s="4">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L35" s="4">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M35" s="4">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N35" s="4">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="O35" s="4">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P35" s="4">
         <f t="shared" si="2"/>
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="Q35" s="4">
         <f t="shared" si="2"/>
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="R35" s="4">
         <f t="shared" si="2"/>
-        <v>-16</v>
+        <v>-9</v>
       </c>
       <c r="S35" s="4">
         <f t="shared" si="2"/>
-        <v>-31</v>
+        <v>-24</v>
       </c>
       <c r="T35" s="4"/>
       <c r="U35" s="4"/>
@@ -2704,7 +2734,7 @@
     </row>
     <row r="36" spans="1:27" ht="12.75" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B36" s="14"/>
       <c r="C36" s="4"/>
@@ -31163,17 +31193,17 @@
     <mergeCell ref="A6:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -31209,10 +31239,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
@@ -31233,7 +31263,7 @@
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
@@ -31250,7 +31280,7 @@
     </row>
     <row r="2" spans="1:26" ht="27.75" customHeight="1">
       <c r="A2" s="18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>39</v>
@@ -31261,7 +31291,9 @@
       <c r="D2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="4">
+        <v>5</v>
+      </c>
       <c r="F2" s="4">
         <v>4</v>
       </c>
@@ -31291,7 +31323,7 @@
     <row r="3" spans="1:26" ht="12.75" customHeight="1">
       <c r="A3" s="17"/>
       <c r="B3" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>32</v>
@@ -31299,7 +31331,9 @@
       <c r="D3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4">
+        <v>2</v>
+      </c>
       <c r="F3" s="4">
         <v>2</v>
       </c>
@@ -31326,10 +31360,10 @@
     </row>
     <row r="4" spans="1:26" ht="28.5" customHeight="1">
       <c r="A4" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>32</v>
@@ -31338,15 +31372,15 @@
         <v>22</v>
       </c>
       <c r="E4" s="4">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="4">
-        <v>5</v>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4">
+        <v>3</v>
       </c>
-      <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
@@ -31367,16 +31401,16 @@
     <row r="5" spans="1:26" ht="12.75" customHeight="1">
       <c r="A5" s="17"/>
       <c r="B5" s="14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -31385,7 +31419,7 @@
         <v>3</v>
       </c>
       <c r="J5" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -31406,13 +31440,17 @@
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1">
       <c r="A6" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>84</v>
+      <c r="D6" s="4" t="s">
+        <v>22</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -31439,10 +31477,10 @@
     <row r="7" spans="1:26" ht="30.75" customHeight="1">
       <c r="A7" s="17"/>
       <c r="B7" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>22</v>
@@ -31487,7 +31525,9 @@
       <c r="D8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2">
+        <v>3</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -31548,7 +31588,7 @@
         <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>22</v>
@@ -31615,15 +31655,27 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26" ht="27.75" customHeight="1">
-      <c r="A12" s="21"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="A12" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="I12" s="2">
+        <v>2</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -31644,17 +31696,29 @@
     </row>
     <row r="13" spans="1:26" ht="43.5" customHeight="1">
       <c r="A13" s="17"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="B13" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="2">
+        <v>3</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+      <c r="K13" s="2">
+        <v>2</v>
+      </c>
+      <c r="L13" s="2">
+        <v>3</v>
+      </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -31811,7 +31875,9 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A19" s="12"/>
+      <c r="A19" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="B19" s="7"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -31839,15 +31905,17 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A20" s="1"/>
+      <c r="A20" s="10" t="s">
+        <v>92</v>
+      </c>
       <c r="B20" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2">
-        <f t="shared" ref="E20:H20" si="0">SUM(E2:E17)</f>
-        <v>29</v>
+        <f t="shared" ref="E20:H21" si="0">SUM(E2:E17)</f>
+        <v>33</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="0"/>
@@ -31863,7 +31931,7 @@
       </c>
       <c r="I20" s="2">
         <f>SUM(I2:I5)</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" ref="J20:N20" si="1">SUM(J2:J17)</f>
@@ -31871,11 +31939,11 @@
       </c>
       <c r="K20" s="2">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L20" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" si="1"/>
@@ -31903,46 +31971,47 @@
       <c r="B21" s="14"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
-      <c r="E21" s="4">
-        <v>58</v>
+      <c r="E21" s="2">
+        <f>E20</f>
+        <v>33</v>
       </c>
       <c r="F21" s="4">
         <f>E20-F20</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G21" s="4">
         <f t="shared" ref="G21:N21" si="2">F21-G20</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H21" s="4">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I21" s="4">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="J21" s="4">
         <f t="shared" si="2"/>
-        <v>-2</v>
+        <v>7</v>
       </c>
       <c r="K21" s="4">
         <f t="shared" si="2"/>
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="L21" s="4">
         <f t="shared" si="2"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="M21" s="4">
         <f t="shared" si="2"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="N21" s="4">
         <f t="shared" si="2"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
@@ -32519,7 +32588,7 @@
     </row>
     <row r="42" spans="1:26" ht="12.75" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B42" s="14"/>
       <c r="C42" s="4"/>
@@ -32549,7 +32618,7 @@
     </row>
     <row r="43" spans="1:26" ht="12.75" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B43" s="14"/>
       <c r="C43" s="4"/>
